--- a/dependencies/bi/salmonella/typhimurium-14028S/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/typhimurium-14028S/script_dependents/Filtered_Regions.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/gen-bact/salmonella/snp_pipeline/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/typhimurium-14028S/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C6C70-22F2-444D-8D72-C6C303549477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC_016856.1" sheetId="2" r:id="rId1"/>
     <sheet name="NC_016855.1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,19 +29,340 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>salmonella-All</t>
   </si>
   <si>
     <t>salmonella-01</t>
+  </si>
+  <si>
+    <t>26172-58643</t>
+  </si>
+  <si>
+    <t>613917-620558</t>
+  </si>
+  <si>
+    <t>962256-992411</t>
+  </si>
+  <si>
+    <t>1056538-1102365</t>
+  </si>
+  <si>
+    <t>1282096-1335316</t>
+  </si>
+  <si>
+    <t>1974584-1983175</t>
+  </si>
+  <si>
+    <t>2090630-2144387</t>
+  </si>
+  <si>
+    <t>2382514-2396770</t>
+  </si>
+  <si>
+    <t>2780529-2830724</t>
+  </si>
+  <si>
+    <t>2920065-2951425</t>
+  </si>
+  <si>
+    <t>4431457-4451876</t>
+  </si>
+  <si>
+    <t>815791-815893</t>
+  </si>
+  <si>
+    <t>998016-998117</t>
+  </si>
+  <si>
+    <t>998100-998193</t>
+  </si>
+  <si>
+    <t>2682290-2682682</t>
+  </si>
+  <si>
+    <t>2782420-2782478</t>
+  </si>
+  <si>
+    <t>2820086-2820176</t>
+  </si>
+  <si>
+    <t>3115310-3115461</t>
+  </si>
+  <si>
+    <t>3204352-3204474</t>
+  </si>
+  <si>
+    <t>3643345-3643425</t>
+  </si>
+  <si>
+    <t>3643680-3643766</t>
+  </si>
+  <si>
+    <t>80349-81067</t>
+  </si>
+  <si>
+    <t>80349-81066</t>
+  </si>
+  <si>
+    <t>80350-81066</t>
+  </si>
+  <si>
+    <t>80351-81066</t>
+  </si>
+  <si>
+    <t>295213-295344</t>
+  </si>
+  <si>
+    <t>295213-295345</t>
+  </si>
+  <si>
+    <t>295213-295343</t>
+  </si>
+  <si>
+    <t>295463-295605</t>
+  </si>
+  <si>
+    <t>295528-295604</t>
+  </si>
+  <si>
+    <t>304967-305043</t>
+  </si>
+  <si>
+    <t>738743-738821</t>
+  </si>
+  <si>
+    <t>738835-738910</t>
+  </si>
+  <si>
+    <t>738945-739020</t>
+  </si>
+  <si>
+    <t>739136-739214</t>
+  </si>
+  <si>
+    <t>819275-819352</t>
+  </si>
+  <si>
+    <t>819482-819557</t>
+  </si>
+  <si>
+    <t>819482-819559</t>
+  </si>
+  <si>
+    <t>819561-819638</t>
+  </si>
+  <si>
+    <t>819686-819763</t>
+  </si>
+  <si>
+    <t>819896-819973</t>
+  </si>
+  <si>
+    <t>874474-875192</t>
+  </si>
+  <si>
+    <t>874474-875191</t>
+  </si>
+  <si>
+    <t>874475-875191</t>
+  </si>
+  <si>
+    <t>874476-875191</t>
+  </si>
+  <si>
+    <t>874479-875191</t>
+  </si>
+  <si>
+    <t>907605-907673</t>
+  </si>
+  <si>
+    <t>907776-907988</t>
+  </si>
+  <si>
+    <t>909785-909853</t>
+  </si>
+  <si>
+    <t>983344-984063</t>
+  </si>
+  <si>
+    <t>983345-984062</t>
+  </si>
+  <si>
+    <t>983346-984064</t>
+  </si>
+  <si>
+    <t>983347-984062</t>
+  </si>
+  <si>
+    <t>983350-984063</t>
+  </si>
+  <si>
+    <t>1182486-1182553</t>
+  </si>
+  <si>
+    <t>1182854-1182921</t>
+  </si>
+  <si>
+    <t>1272872-1273587</t>
+  </si>
+  <si>
+    <t>1272875-1273587</t>
+  </si>
+  <si>
+    <t>1272875-1273589</t>
+  </si>
+  <si>
+    <t>1786154-1786866</t>
+  </si>
+  <si>
+    <t>1786154-1786867</t>
+  </si>
+  <si>
+    <t>1786154-1786869</t>
+  </si>
+  <si>
+    <t>1925863-1926578</t>
+  </si>
+  <si>
+    <t>1925865-1926584</t>
+  </si>
+  <si>
+    <t>1925866-1926583</t>
+  </si>
+  <si>
+    <t>1925866-1926581</t>
+  </si>
+  <si>
+    <t>2057029-2057743</t>
+  </si>
+  <si>
+    <t>2057031-2057743</t>
+  </si>
+  <si>
+    <t>2057031-2057747</t>
+  </si>
+  <si>
+    <t>2580489-2580566</t>
+  </si>
+  <si>
+    <t>2580607-2580684</t>
+  </si>
+  <si>
+    <t>2583389-2583464</t>
+  </si>
+  <si>
+    <t>2583510-2583587</t>
+  </si>
+  <si>
+    <t>2583627-2583702</t>
+  </si>
+  <si>
+    <t>2583707-2583784</t>
+  </si>
+  <si>
+    <t>2630772-2631490</t>
+  </si>
+  <si>
+    <t>2630773-2631486</t>
+  </si>
+  <si>
+    <t>2630774-2631490</t>
+  </si>
+  <si>
+    <t>2630774-2631489</t>
+  </si>
+  <si>
+    <t>2990161-2990239</t>
+  </si>
+  <si>
+    <t>2990431-2990509</t>
+  </si>
+  <si>
+    <t>2990709-2990787</t>
+  </si>
+  <si>
+    <t>3160868-3160950</t>
+  </si>
+  <si>
+    <t>3160873-3160949</t>
+  </si>
+  <si>
+    <t>3160974-3161056</t>
+  </si>
+  <si>
+    <t>3160979-3161055</t>
+  </si>
+  <si>
+    <t>3335090-3335302</t>
+  </si>
+  <si>
+    <t>3471687-3471763</t>
+  </si>
+  <si>
+    <t>3477804-3478519</t>
+  </si>
+  <si>
+    <t>3477807-3478519</t>
+  </si>
+  <si>
+    <t>3580763-3580894</t>
+  </si>
+  <si>
+    <t>3580764-3580894</t>
+  </si>
+  <si>
+    <t>3648946-3649658</t>
+  </si>
+  <si>
+    <t>3648946-3649662</t>
+  </si>
+  <si>
+    <t>4118796-4118928</t>
+  </si>
+  <si>
+    <t>4118796-4118926</t>
+  </si>
+  <si>
+    <t>4118909-4119051</t>
+  </si>
+  <si>
+    <t>4118974-4119050</t>
+  </si>
+  <si>
+    <t>4154826-4154912</t>
+  </si>
+  <si>
+    <t>4214880-4215010</t>
+  </si>
+  <si>
+    <t>4369948-4370078</t>
+  </si>
+  <si>
+    <t>4609250-4609327</t>
+  </si>
+  <si>
+    <t>4609714-4609791</t>
+  </si>
+  <si>
+    <t>4823461-4823549</t>
+  </si>
+  <si>
+    <t>4823462-4823548</t>
+  </si>
+  <si>
+    <t>4823693-4823781</t>
+  </si>
+  <si>
+    <t>4823694-4823780</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +522,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF9300"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -815,7 +1155,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -830,6 +1170,9 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1105,8 +1448,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1446,11 +1789,764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="7"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="7"/>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="7"/>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="7"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="7"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,384 +2564,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="44.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
